--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894207</v>
+        <v>2084967.651894208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1062532.055125834</v>
+        <v>1012376.8387975</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>1.382771042867707</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>127.1219020324288</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>28.6171621105168</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>40.40941126622193</v>
+        <v>146.5729054055631</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.63560877676111</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>46.58646588932444</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>361.3710930206957</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>173.8990189732827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.52626964552601</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>197.6165621654129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918804</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8391364745408</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278749999</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985811</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113171</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>25.76303551579331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>173.3937386097685</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>134.7660731567848</v>
       </c>
       <c r="X34" t="n">
-        <v>138.684164038175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>60.16172393095837</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>103.0122433706381</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>59.32456467617133</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.7299368928103</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>55.22013099942618</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2364.689465247513</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2011.920809977398</v>
       </c>
       <c r="X2" t="n">
-        <v>2337.536952213968</v>
+        <v>1638.455051716319</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>669.805840705999</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2171.363541363379</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="X5" t="n">
-        <v>2171.363541363379</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>530.7314582348854</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7314582348854</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.315630222944</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>338.1849863041093</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
         <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.161069819836</v>
+        <v>1146.494221480381</v>
       </c>
       <c r="N12" t="n">
-        <v>2115.681725457454</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.0010960824696</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>396.0649131545628</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>396.0649131545628</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>396.0649131545628</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>396.0649131545628</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>565.0010960824696</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>493.5013994809973</v>
+        <v>1208.288081576278</v>
       </c>
       <c r="M15" t="n">
-        <v>1261.869545873459</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="N15" t="n">
-        <v>2066.28112413761</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.034538221572</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,19 +5598,19 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>1771.161069819836</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1992.35927141665</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2512.659893152397</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1099.383571417482</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310402</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251534</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>534.2534289639125</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="N21" t="n">
-        <v>2029.138566119363</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,46 +5987,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K24" t="n">
-        <v>246.2867756623457</v>
+        <v>2672.758937715076</v>
       </c>
       <c r="L24" t="n">
-        <v>735.0407559057232</v>
+        <v>2902.722043583425</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>3671.090189975886</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>3671.090189975886</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>4340.553951278545</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>287.7778528277033</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.145999220165</v>
+        <v>939.1942790685365</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.557577484316</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O27" t="n">
-        <v>2530.021338786975</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.021338786975</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3879.86772021712</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387596</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4571.72593422785</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4282.30876419089</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4282.30876419089</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>4061.51618504736</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>829.3628462796264</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.698165809328</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2591.885251391686</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.3056288361466</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6649,22 +6649,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V31" t="n">
-        <v>909.3712637033469</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W31" t="n">
-        <v>619.9540936663864</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X31" t="n">
-        <v>619.9540936663864</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.9540936663864</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6734,7 +6734,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942954</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>3359.285497699842</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>3779.197596266346</v>
+        <v>1314.479671120147</v>
       </c>
       <c r="N33" t="n">
-        <v>4123.718251903964</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O33" t="n">
-        <v>4372.471665987927</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.6009593486384</v>
+        <v>4094.296631519491</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>3925.360448591584</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>4724.727226391277</v>
       </c>
       <c r="X34" t="n">
-        <v>525.6009593486384</v>
+        <v>4496.73767549326</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.6009593486384</v>
+        <v>4275.94509634973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L36" t="n">
-        <v>412.6079778147081</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M36" t="n">
-        <v>1180.97612420717</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="N36" t="n">
-        <v>1985.38770247132</v>
+        <v>3701.065751623477</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4370.529512926137</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3799.634725086986</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C37" t="n">
-        <v>3799.634725086986</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D37" t="n">
-        <v>3799.634725086986</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974907</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>1171.078084265956</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985003</v>
+        <v>881.6609142289949</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086986</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="Y37" t="n">
-        <v>3799.634725086986</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2500.819361250803</v>
+        <v>611.2578361750504</v>
       </c>
       <c r="L39" t="n">
-        <v>3114.716431007691</v>
+        <v>841.2209420433995</v>
       </c>
       <c r="M39" t="n">
-        <v>3883.084577400153</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N39" t="n">
-        <v>4655.832092232083</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O39" t="n">
-        <v>4655.832092232083</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3570.689985294727</v>
+        <v>3774.981524342493</v>
       </c>
       <c r="C40" t="n">
-        <v>3570.689985294727</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="D40" t="n">
-        <v>3570.689985294727</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E40" t="n">
-        <v>3570.689985294727</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
         <v>4411.546387431056</v>
@@ -7357,25 +7357,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.020508932908</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V40" t="n">
-        <v>4088.096706229705</v>
+        <v>4694.829289251241</v>
       </c>
       <c r="W40" t="n">
-        <v>3798.679536192744</v>
+        <v>4405.41211921428</v>
       </c>
       <c r="X40" t="n">
-        <v>3570.689985294727</v>
+        <v>4177.422568316263</v>
       </c>
       <c r="Y40" t="n">
-        <v>3570.689985294727</v>
+        <v>3956.629989172733</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1186.5500574777</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1493.870190757661</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.076119474742</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.5883316929525</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="C43" t="n">
-        <v>471.5883316929525</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>471.5883316929525</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>471.5883316929525</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>471.5883316929525</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>303.413010012773</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>152.9950015607163</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y43" t="n">
-        <v>471.5883316929525</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,25 +7634,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M45" t="n">
-        <v>1564.731711769082</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N45" t="n">
-        <v>2369.143290033232</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O45" t="n">
-        <v>2369.143290033232</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>289.9943345582357</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>24.19192671191951</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>191.1021155702779</v>
       </c>
       <c r="L24" t="n">
-        <v>244.4331841787005</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.484105183777729</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>67.16197418857377</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.1713907562858</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>200.6564225862044</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>268.0367344586617</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>63.10596476685578</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>49.90680258656192</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>129.9672988178516</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>23.93099889297636</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518756</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>10.0746918929953</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338932</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>141.4837855828345</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,10 +24889,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>112.8436137888089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>151.7569251798062</v>
       </c>
       <c r="X34" t="n">
-        <v>87.02549135086213</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25315,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>86.2722387156108</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25363,13 +25363,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>149.1253999531899</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>192.8130786476567</v>
+        <v>87.77261239840709</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>1.516884205817547</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>55.1991144648458</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5910604296193e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758258</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905759102</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467889</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.933167756</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.933167756</v>
+        <v>311758.9331677557</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571673</v>
+        <v>-109597.3784571667</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197291</v>
       </c>
       <c r="G6" t="n">
         <v>415562.6580197291</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197291</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="I6" t="n">
+        <v>415562.6580197292</v>
+      </c>
+      <c r="J6" t="n">
+        <v>239139.4388271361</v>
+      </c>
+      <c r="K6" t="n">
         <v>415562.658019729</v>
       </c>
-      <c r="J6" t="n">
-        <v>239139.438827136</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>415562.6580197292</v>
       </c>
-      <c r="L6" t="n">
-        <v>415562.6580197291</v>
-      </c>
       <c r="M6" t="n">
-        <v>280761.6427858919</v>
+        <v>280761.642785892</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.658019729</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197291</v>
+        <v>415562.6580197288</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.658019729</v>
+        <v>415562.6580197292</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.09563153194399</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>242.6091986460402</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>118.048029869641</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>24.62049154535643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>308.8315574511911</v>
+        <v>202.6680633118499</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>266.6462654652166</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>308.0965757313585</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>8.360007657773338</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>160.1931355603111</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>112.6239793633083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.602477543272211e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,13 +31610,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>209.3938812240858</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>7.172050210143198</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32078,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>57.07164750291537</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32318,22 +32318,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>7.172050210143709</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>41.93843809132539</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>164.6848965247094</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,13 +32792,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32807,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>372.2688744803115</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>314.7695834177515</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>171.9901114440537</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,25 +33497,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>100.582605087679</v>
+        <v>117.8878668898065</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>432.5523830245575</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,13 +34217,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,25 +34375,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>371.8925761935062</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>532.9649110520674</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4381250424283</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>539.25203951426</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>241.5600087285223</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>355.1727124703639</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>112.033951741153</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>273.4496316679438</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>415.9509713569945</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>341.6775541582172</v>
       </c>
       <c r="L24" t="n">
-        <v>493.6908891347248</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>623.5349493125966</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49713796885186</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>547.0555489413365</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>32.0083373580322</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>424.1536349156606</v>
+        <v>441.4588967177881</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>349.5256764296819</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>407.2648056878105</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>351.2318611741437</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>780.5530452847777</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>517.2944394146859</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>270.1993796983805</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>719.8932384537264</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>257.0002175180866</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894208</v>
+        <v>2160497.321559014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1012376.8387975</v>
+        <v>416455.9514706514</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>148.0466746004099</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.382771042867707</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.6171621105168</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>237.4552014283703</v>
       </c>
       <c r="W5" t="n">
-        <v>146.5729054055631</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.66075074687603</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>46.58646588932444</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.0841951582833</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>55.90301252244868</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>259.9372488789859</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>214.9337213024632</v>
       </c>
       <c r="W19" t="n">
-        <v>173.4405054918804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>122.9684277897058</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>101.1426547140141</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278749999</v>
+        <v>205.2931283435313</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985811</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.30512543274121</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>173.3937386097685</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>134.7660731567848</v>
+        <v>27.26009267756717</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>49.12199829633398</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>103.0122433706381</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>161.0156334937751</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>164.3650309254209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>165.7299368928103</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>77.89561362600492</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>49.12199829633393</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2364.689465247513</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.920809977398</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.455051716319</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>669.805840705999</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>455.5174175241617</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>455.5174175241617</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>455.5174175241617</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.826586715716</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.826586715716</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1596.687254739904</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4744,25 +4746,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561872</v>
+        <v>1336.435086552836</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.737983561872</v>
+        <v>1336.435086552836</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1336.435086552836</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1336.435086552836</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>925.4491817632286</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>507.4853736614155</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>180.2906536974183</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>1723.034926616958</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084163</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648862</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
         <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388347</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1146.494221480381</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
         <v>1476.356849144414</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1036.433382817913</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="14">
@@ -5279,10 +5281,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1208.288081576278</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1528.62340110598</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5507,13 +5509,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5540,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
         <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388348</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1942790685366</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N18" t="n">
-        <v>1743.605857332687</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O18" t="n">
-        <v>1992.35927141665</v>
+        <v>2401.211522871573</v>
       </c>
       <c r="P18" t="n">
-        <v>2512.659893152397</v>
+        <v>2583.855000484924</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W19" t="n">
-        <v>245.130185042679</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X19" t="n">
-        <v>245.130185042679</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231263</v>
@@ -5789,13 +5791,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>534.2534289639125</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>854.5887484936143</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.000326757765</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O21" t="n">
-        <v>2328.464088060424</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>1096.475226584129</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>1278.123691414368</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098441</v>
+        <v>118.5230639285114</v>
       </c>
       <c r="K24" t="n">
-        <v>2672.758937715076</v>
+        <v>243.8806239863488</v>
       </c>
       <c r="L24" t="n">
-        <v>2902.722043583425</v>
+        <v>473.8437298546979</v>
       </c>
       <c r="M24" t="n">
-        <v>3671.090189975886</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N24" t="n">
-        <v>3671.090189975886</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.553951278545</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014292</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>4356.2492313496</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>4187.313048421693</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>4758.690275323369</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>4537.897696179839</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6208,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388347</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1942790685365</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N27" t="n">
-        <v>1743.605857332687</v>
+        <v>1388.268413366882</v>
       </c>
       <c r="O27" t="n">
-        <v>2360.905457152158</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P27" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387596</v>
+        <v>4342.492663185073</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>4053.364024398631</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>3798.679536192744</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>3798.679536192744</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.322705390779</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O30" t="n">
-        <v>2386.862770609477</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P30" t="n">
-        <v>2591.885251391686</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>4147.418415517901</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>3978.482232589994</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>3978.482232589994</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>3978.482232589994</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>3831.592285092084</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>3663.416963411904</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>3512.998954959848</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>1212.69597660481</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V31" t="n">
-        <v>958.0114883989231</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W31" t="n">
-        <v>668.5943183619626</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619626</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>4329.06688034814</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6695,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1314.479671120147</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.000326757765</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4094.296631519491</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>3925.360448591584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1009.867621687018</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>755.1831334811308</v>
       </c>
       <c r="W34" t="n">
-        <v>4724.727226391277</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>4496.73767549326</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>4275.94509634973</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,22 +6934,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6959,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M36" t="n">
-        <v>2896.654173359327</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N36" t="n">
-        <v>3701.065751623477</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O36" t="n">
-        <v>4370.529512926137</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.6713633309776</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6713633309776</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>294.748365139986</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>1171.078084265956</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>881.6609142289949</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X37" t="n">
-        <v>653.6713633309776</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y37" t="n">
-        <v>653.6713633309776</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>611.2578361750504</v>
+        <v>2626.17692130864</v>
       </c>
       <c r="L39" t="n">
-        <v>841.2209420433995</v>
+        <v>2856.140027176989</v>
       </c>
       <c r="M39" t="n">
-        <v>1609.589088435861</v>
+        <v>3624.508173569451</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>3969.028829207069</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>4217.782243291032</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3774.981524342493</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>3606.045341414586</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>3606.045341414586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>4694.829289251241</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>4405.41211921428</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>4177.422568316263</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y40" t="n">
-        <v>3956.629989172733</v>
+        <v>726.8250614170379</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L42" t="n">
-        <v>1186.5500574777</v>
+        <v>493.5013994809974</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.870190757661</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N42" t="n">
-        <v>1823.732818421694</v>
+        <v>2066.28112413761</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.1556594977427</v>
+        <v>638.8778922268343</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>638.8778922268343</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>638.8778922268343</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>490.9647986444412</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>344.0748511465308</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>175.8995294663514</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W43" t="n">
-        <v>785.7936752259998</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X43" t="n">
-        <v>557.8041243279824</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="Y43" t="n">
-        <v>557.8041243279824</v>
+        <v>820.5263570570741</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,16 +7730,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750121</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N45" t="n">
-        <v>2192.176613678825</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O45" t="n">
         <v>2440.930027762787</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7807,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>289.9943345582357</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>24.19192671191951</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>191.1021155702779</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>268.0367344586604</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,13 +10682,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>200.1713907562858</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>200.6564225862044</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>268.0367344586617</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11397,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>26.3001035195914</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675399</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>37.20392202136478</v>
       </c>
       <c r="W19" t="n">
-        <v>113.0824928447106</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>44.27839330892201</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.77815526958911</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338932</v>
+        <v>16.25443271485796</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>57.11412003153077</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>112.8436137888089</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>151.7569251798062</v>
+        <v>259.2629056590238</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>117.3715701670436</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>149.1253999531899</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>18.81634668816216</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25606,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>87.77261239840709</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.516884205817547</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>71.01821474153121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>237.4010000402571</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="K2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="O2" t="n">
-        <v>508337.7776590213</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.777659022</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>787.7936905758691</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758698</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759102</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467887</v>
+        <v>-278208.9460467888</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.933167756</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677557</v>
+        <v>311758.9331677564</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571667</v>
+        <v>-109597.3784571675</v>
       </c>
       <c r="F6" t="n">
+        <v>415562.6580197292</v>
+      </c>
+      <c r="G6" t="n">
+        <v>415562.6580197292</v>
+      </c>
+      <c r="H6" t="n">
+        <v>415562.6580197293</v>
+      </c>
+      <c r="I6" t="n">
         <v>415562.6580197291</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>239139.4388271363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>415562.6580197293</v>
+      </c>
+      <c r="L6" t="n">
+        <v>415562.658019729</v>
+      </c>
+      <c r="M6" t="n">
+        <v>280761.6427858919</v>
+      </c>
+      <c r="N6" t="n">
         <v>415562.6580197291</v>
       </c>
-      <c r="H6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="I6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239139.4388271361</v>
-      </c>
-      <c r="K6" t="n">
-        <v>415562.658019729</v>
-      </c>
-      <c r="L6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="M6" t="n">
-        <v>280761.642785892</v>
-      </c>
-      <c r="N6" t="n">
-        <v>415562.6580197292</v>
-      </c>
       <c r="O6" t="n">
-        <v>415562.6580197288</v>
+        <v>415562.6580197293</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197295</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>206.6363670202731</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.09563153194399</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>118.048029869641</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>181.7172520189442</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>90.29705704176456</v>
       </c>
       <c r="W5" t="n">
-        <v>202.6680633118499</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4847882031429</v>
+        <v>56.93405031343778</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>308.0965757313585</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>26.84712108657799</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491437</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>160.1931355603111</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28995,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31130,7 +31132,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31382,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392877</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31847,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>209.3938812240858</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>194.5877923618781</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31864,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,25 +32077,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.0126678614002</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32321,28 +32323,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.93843809132539</v>
+        <v>169.3640900394697</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32545,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>171.3135836203297</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32788,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>148.3588109780056</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32809,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,13 +33037,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>372.2688744803115</v>
+        <v>400.8651491678963</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>291.0556186093509</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>171.9901114440537</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>117.8878668898065</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>286.6638531320881</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>166.989328074945</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>127.1671611527421</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34451,16 +34453,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>371.8925761935062</v>
+        <v>272.8672424422182</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35029,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262139</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>532.9649110520674</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>542.5884546220983</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>539.25203951426</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>646.5836976893818</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.033951741153</v>
+        <v>29.38231595344818</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>273.4496316679438</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>422.5796584526148</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,19 +36287,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205988</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>21.52118431133892</v>
       </c>
       <c r="K24" t="n">
-        <v>341.6775541582172</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,19 +36685,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>623.5349493125966</v>
+        <v>652.1312240001814</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>542.3216934416359</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.0083373580322</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>441.4588967177881</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>601.2313078566734</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118052</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>634.6645153923083</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>407.2648056878105</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>351.2318611741437</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>351.4776893005519</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>517.2944394146859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4332359850272</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>719.8932384537264</v>
+        <v>620.8679047024384</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160497.321559014</v>
+        <v>2153480.306667302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416455.9514706514</v>
+        <v>578478.5754122055</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>148.0466746004099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.99240337009294</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>237.4552014283703</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.36390763391882</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>120.0321124540375</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.0841951582833</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481181</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229337</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.90301252244868</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.9372488789859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>134.4677178074603</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>89.09646007723597</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>214.9337213024632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>122.9684277897058</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>101.1426547140141</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>76.18232971724149</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>205.2931283435313</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>53.30512543274121</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>94.74745015088659</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>31.44776415445429</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>27.26009267756717</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.12199829633398</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.0156334937751</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847147</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>77.89561362600492</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371609</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>66.14085215535493</v>
       </c>
       <c r="W46" t="n">
-        <v>49.12199829633393</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.689018870909</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1571.689018870909</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1753.692722656504</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.692722656504</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4661,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.435086552836</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.435086552836</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.435086552836</v>
+        <v>196.0564446653584</v>
       </c>
       <c r="E8" t="n">
-        <v>1336.435086552836</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>925.4491817632286</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>507.4853736614155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>180.2906536974183</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862884</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862884</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862884</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.17425859277</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.17425859277</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.034926616958</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482713</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658206</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084163</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648862</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5047,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>990.9427979105848</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144414</v>
+        <v>1795.354376174736</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2044.107790258698</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.9563154684962</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1036.433382817913</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>781.7488946120263</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>781.7488946120263</v>
+        <v>1363.090292974609</v>
       </c>
       <c r="X13" t="n">
-        <v>781.7488946120263</v>
+        <v>1135.100742076592</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.9563154684962</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>1092.65561809896</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.067196363111</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388347</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1387.227105931296</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.747761568914</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2401.211522871573</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2583.855000484924</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>946.9509829168464</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>657.5338128798858</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>429.5442619818684</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5791,13 +5791,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,49 +5913,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557898</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557898</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557898</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557898</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414368</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>118.5230639285114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>243.8806239863488</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>473.8437298546979</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>794.1790493843997</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4356.2492313496</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C25" t="n">
-        <v>4187.313048421693</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>4037.196409009357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4758.690275323369</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4758.690275323369</v>
+        <v>1222.044412274221</v>
       </c>
       <c r="U25" t="n">
-        <v>4758.690275323369</v>
+        <v>932.915773487779</v>
       </c>
       <c r="V25" t="n">
-        <v>4758.690275323369</v>
+        <v>932.915773487779</v>
       </c>
       <c r="W25" t="n">
-        <v>4758.690275323369</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X25" t="n">
-        <v>4758.690275323369</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y25" t="n">
-        <v>4537.897696179839</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,19 +6311,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.405785702849</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1388.268413366882</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4342.492663185073</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4053.364024398631</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>3798.679536192744</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3798.679536192744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M30" t="n">
-        <v>1672.759814717971</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>2017.280470355589</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4147.418415517901</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C31" t="n">
-        <v>3978.482232589994</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D31" t="n">
-        <v>3978.482232589994</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>3978.482232589994</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>3831.592285092084</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>3663.416963411904</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3512.998954959848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>1403.211775455998</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.85945949167</v>
+        <v>1148.527287250111</v>
       </c>
       <c r="W31" t="n">
-        <v>4549.85945949167</v>
+        <v>859.11011721315</v>
       </c>
       <c r="X31" t="n">
-        <v>4549.85945949167</v>
+        <v>859.11011721315</v>
       </c>
       <c r="Y31" t="n">
-        <v>4329.06688034814</v>
+        <v>859.11011721315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6697,25 +6697,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1823.732818421694</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>275.8724572960289</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>275.8724572960289</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473459</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473459</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687018</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V34" t="n">
-        <v>755.1831334811308</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>496.6650364395589</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>496.6650364395589</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905256</v>
+        <v>275.8724572960289</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,52 +6937,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L36" t="n">
-        <v>836.4717212750122</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1156.807040804714</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N36" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.8011874802287</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>444.8650045523218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>294.748365139986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>146.8352715575929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>146.8352715575929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352016</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.242231453999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>795.4496523104684</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>2626.17692130864</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L39" t="n">
-        <v>2856.140027176989</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>3624.508173569451</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N39" t="n">
-        <v>3969.028829207069</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O39" t="n">
-        <v>4217.782243291032</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>493.5013994809974</v>
+        <v>711.1141612171747</v>
       </c>
       <c r="M42" t="n">
-        <v>1261.869545873459</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N42" t="n">
-        <v>2066.28112413761</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.8778922268343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>638.8778922268343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>638.8778922268343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>490.9647986444412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>344.0748511465308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>175.8995294663514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.210845262961</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570741</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W43" t="n">
-        <v>820.5263570570741</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>820.5263570570741</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>820.5263570570741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,19 +7730,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L45" t="n">
-        <v>836.4717212750121</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7842,16 +7842,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352016</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>148.2056261846776</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>268.0367344586604</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>26.3001035195914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>152.0552805291307</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>129.4881932748588</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675399</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.20392202136478</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>44.27839330892201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>96.77815526958911</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>145.3652313411478</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.25443271485796</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>57.11412003153077</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>191.4899022476907</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>117.1677088637581</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>259.2629056590238</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>117.3715701670436</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338474</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.81634668816216</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>103.0576765518763</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>71.01821474153121</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.2688311464423</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26082,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>185.9967911684731</v>
       </c>
       <c r="W46" t="n">
-        <v>237.4010000402571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117849</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
@@ -26331,31 +26331,31 @@
         <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.777659022</v>
+        <v>508337.7776590218</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.138257736485684e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.1391806192</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758691</v>
+        <v>787.7936905759101</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758698</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467888</v>
+        <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677564</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677564</v>
+        <v>311758.933167756</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571675</v>
+        <v>-110571.9697168886</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197293</v>
+        <v>414588.0667600071</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271363</v>
+        <v>238164.8475674147</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.6580197293</v>
+        <v>414588.066760007</v>
       </c>
       <c r="L6" t="n">
-        <v>415562.658019729</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.6427858919</v>
+        <v>279787.05152617</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600072</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197293</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197295</v>
+        <v>414588.0667600076</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253574</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>206.6363670202731</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>58.2374134625291</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>181.7172520189442</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>90.29705704176456</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>131.2515653842935</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.93405031343778</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>261.8982576182243</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>26.84712108657799</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.9289676594886</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853705</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491437</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28739,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633787</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473546</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141101</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188906</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890686</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478005</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392877</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078603</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644435</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302231</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175834</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678002</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>194.5877923618781</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>330.7350292835963</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32086,16 +32086,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.0126678614002</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>148.1449823495585</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>169.3640900394697</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,16 +32557,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>171.3135836203297</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>148.3588109780056</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>400.8651491678963</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O30" t="n">
-        <v>291.0556186093509</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354894</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354894</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>286.6638531320881</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
         <v>0.2670576580354894</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>201.8898618898335</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>166.989328074945</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
         <v>0.2670576580354894</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
-        <v>127.1671611527421</v>
+        <v>91.84465193776617</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
         <v>0.2670576580354894</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N45" t="n">
-        <v>272.8672424422182</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,16 +34471,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770682</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713855</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262139</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713946</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>542.5884546220983</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>515.2233905092032</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>646.5836976893818</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>496.1456446097787</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>16.86391410134428</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.38231595344818</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>422.5796584526148</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515205988</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>21.52118431133892</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>652.1312240001814</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O30" t="n">
-        <v>542.3216934416359</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N33" t="n">
-        <v>601.2313078566734</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118052</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N36" t="n">
-        <v>634.6645153923083</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>525.4608917178151</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>351.4776893005519</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4332359850272</v>
+        <v>343.1107267700513</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N45" t="n">
-        <v>620.8679047024384</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153480.306667302</v>
+        <v>2158419.569516334</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>578478.5754122055</v>
+        <v>624370.806688193</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>46.87625964629903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>311.4936872159399</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>15.1171458163242</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17.36390763391882</v>
+        <v>17.36390763391848</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>120.0321124540375</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>257.0152846411281</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>160.7539405631286</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>134.4677178074603</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.80960945454521</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.09646007723597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>115.3097409636394</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>76.18232971724149</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>94.74745015088659</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052011</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>31.44776415445429</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151918</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>183.4653217847147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.6519788371609</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>66.14085215535493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>101.2927390388483</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.509002921313</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.509002921313</v>
+        <v>898.8784838925776</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>710.5896835661124</v>
+        <v>710.5896835661125</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>554.3221432721089</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>196.0564446653584</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>313.5543804477666</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5129,13 +5129,13 @@
         <v>222.5746515181232</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9427979105848</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N12" t="n">
-        <v>1795.354376174736</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>2044.107790258698</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.6596981028219</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.090292974609</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.100742076592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y13" t="n">
-        <v>914.3081629330617</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5363,19 +5363,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
         <v>244.1070389581962</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1422.340907472503</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1198.555492262009</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>620.0096834386067</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065435</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.0432218861031</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5700,7 +5700,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
         <v>1379.229518531123</v>
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1222.044412274221</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>932.915773487779</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>932.915773487779</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>643.4986034508183</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047987</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
         <v>1890.372576454149</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U31" t="n">
-        <v>1403.211775455998</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V31" t="n">
-        <v>1148.527287250111</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W31" t="n">
-        <v>859.11011721315</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X31" t="n">
-        <v>859.11011721315</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>859.11011721315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047987</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
         <v>1890.372576454149</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>275.8724572960289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>275.8724572960289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765196</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765196</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>496.6650364395589</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X34" t="n">
-        <v>496.6650364395589</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y34" t="n">
-        <v>275.8724572960289</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,16 +7113,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,7 +7189,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1808.531915014687</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609673</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550805</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,31 +7478,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171747</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,10 +7730,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047987</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
         <v>1890.372576454149</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1432.107328986838</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.107328986838</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9011,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.492880535499211</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>152.0552805291307</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>122.111200529058</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4881932748588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>106.2378200947498</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.3652313411478</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.4899022476907</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>117.1677088637581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.74113413690301</v>
       </c>
     </row>
     <row r="35">
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338474</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>103.0576765518763</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>75.2688311464423</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>185.9967911684731</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117849</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26328,34 +26328,34 @@
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590213</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="J2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590218</v>
-      </c>
       <c r="P2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>4.138257736485684e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26435,19 +26435,19 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759101</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467889</v>
+        <v>-278208.9460467888</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677564</v>
+        <v>311758.9331677556</v>
       </c>
       <c r="D6" t="n">
         <v>311758.933167756</v>
       </c>
       <c r="E6" t="n">
-        <v>-110571.9697168886</v>
+        <v>-109694.8375831391</v>
       </c>
       <c r="F6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="G6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="H6" t="n">
-        <v>414588.0667600071</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="I6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.198893757</v>
       </c>
       <c r="J6" t="n">
-        <v>238164.8475674147</v>
+        <v>239041.979701164</v>
       </c>
       <c r="K6" t="n">
-        <v>414588.066760007</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="L6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="M6" t="n">
-        <v>279787.05152617</v>
+        <v>280664.1836599195</v>
       </c>
       <c r="N6" t="n">
-        <v>414588.0667600072</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="O6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="P6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.1988937568</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26816,10 +26816,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>366.9079103744959</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>58.2374134625291</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>398.6670242044708</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>131.2515653842935</v>
+        <v>131.2515653842939</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>261.8982576182243</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>66.90748812322909</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31849,16 +31849,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>358.3334935705282</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>330.7350292835963</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32089,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1449823495585</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32098,16 +32098,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946992</v>
@@ -32496,7 +32496,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.06970478104648</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508796</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,13 +33289,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508796</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,13 +33526,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,13 +33763,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>201.8898618898335</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,16 +33997,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776617</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34237,13 +34237,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508796</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,13 +34474,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535575</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>681.9045233985098</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>515.2233905092032</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>496.1456446097787</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989110998</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989110998</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>525.4608917178151</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415667</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415667</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700513</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989110998</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
